--- a/ITE4116M/Assets/_Excel/enemy.xlsx
+++ b/ITE4116M/Assets/_Excel/enemy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\FYP\ITE4116M\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13520D4A-A3EF-43EA-AEC2-BA75E1357A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5446F4-5DDE-41C6-A821-34FF8DBC6AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,39 +42,44 @@
     <t>Model</t>
   </si>
   <si>
+    <t>Model/Slime</t>
+  </si>
+  <si>
+    <t>Model/Golem</t>
+  </si>
+  <si>
+    <t>Model/TurtleShell</t>
+  </si>
+  <si>
+    <t>Slime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stoneman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turtle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物的模型路徑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻擊力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>名字</t>
-  </si>
-  <si>
-    <t>血量</t>
-  </si>
-  <si>
-    <t>攻击力</t>
-  </si>
-  <si>
-    <t>防御盾</t>
-  </si>
-  <si>
-    <t>怪物的模型路径</t>
-  </si>
-  <si>
-    <t>Model/Slime</t>
-  </si>
-  <si>
-    <t>Model/Golem</t>
-  </si>
-  <si>
-    <t>Model/TurtleShell</t>
-  </si>
-  <si>
-    <t>Slime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stoneman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>turtle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,7 +446,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -475,20 +480,20 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -496,7 +501,7 @@
         <v>10001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -508,7 +513,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -516,7 +521,7 @@
         <v>10002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -528,7 +533,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -536,7 +541,7 @@
         <v>10003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -548,7 +553,7 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/ITE4116M/Assets/_Excel/enemy.xlsx
+++ b/ITE4116M/Assets/_Excel/enemy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\FYP\ITE4116M\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5446F4-5DDE-41C6-A821-34FF8DBC6AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E060AB-42B6-4B46-B81A-728280E75884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -48,38 +48,43 @@
     <t>Model/Golem</t>
   </si>
   <si>
+    <t>Slime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stoneman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turtle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物的模型路徑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻擊力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Model/TurtleShell</t>
-  </si>
-  <si>
-    <t>Slime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stoneman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>turtle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物的模型路徑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻擊力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -481,19 +486,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -501,7 +506,7 @@
         <v>10001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -521,7 +526,7 @@
         <v>10002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -541,7 +546,7 @@
         <v>10003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -552,8 +557,28 @@
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
-        <v>8</v>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>10005</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/ITE4116M/Assets/_Excel/enemy.xlsx
+++ b/ITE4116M/Assets/_Excel/enemy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\FYP\ITE4116M\Assets\_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\FYP\ITE4116M\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E060AB-42B6-4B46-B81A-728280E75884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B592776D-BE65-4DCD-B9BD-A1F55640B4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,17 +451,17 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -501,7 +501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10001</v>
       </c>
@@ -509,19 +509,19 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10002</v>
       </c>
@@ -529,19 +529,19 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10003</v>
       </c>
@@ -561,7 +561,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10005</v>
       </c>
@@ -569,10 +569,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -594,7 +594,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -608,7 +608,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
